--- a/AnacondaProjects/MachineLearning_Handbook/Titanic/Compare.xlsx
+++ b/AnacondaProjects/MachineLearning_Handbook/Titanic/Compare.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MachineLearning\AnacondaProjects\MachineLearning\Titanic\submissions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MachineLearning\AnacondaProjects\MachineLearning_Handbook\Titanic\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D5CDF162-6137-40DF-A38A-E5F10AD30C0A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="submission_new_0208" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">submission_new_0208!$A$1:$E$419</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -42,8 +43,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,11 +178,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -525,9 +521,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -848,11 +843,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E419"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -876,7 +873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>892</v>
       </c>
@@ -886,7 +883,7 @@
       <c r="C2">
         <v>892</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="str">
@@ -894,7 +891,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>893</v>
       </c>
@@ -904,7 +901,7 @@
       <c r="C3">
         <v>893</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="str">
@@ -912,7 +909,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>894</v>
       </c>
@@ -922,7 +919,7 @@
       <c r="C4">
         <v>894</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="str">
@@ -930,7 +927,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>895</v>
       </c>
@@ -940,7 +937,7 @@
       <c r="C5">
         <v>895</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="str">
@@ -948,7 +945,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>896</v>
       </c>
@@ -958,7 +955,7 @@
       <c r="C6">
         <v>896</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="str">
@@ -976,12 +973,12 @@
       <c r="C7">
         <v>897</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,12 +991,12 @@
       <c r="C8">
         <v>898</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1012,15 +1009,15 @@
       <c r="C9">
         <v>899</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>900</v>
       </c>
@@ -1030,7 +1027,7 @@
       <c r="C10">
         <v>900</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="str">
@@ -1038,7 +1035,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>901</v>
       </c>
@@ -1048,7 +1045,7 @@
       <c r="C11">
         <v>901</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="str">
@@ -1056,7 +1053,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>902</v>
       </c>
@@ -1066,7 +1063,7 @@
       <c r="C12">
         <v>902</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="str">
@@ -1074,7 +1071,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>903</v>
       </c>
@@ -1084,7 +1081,7 @@
       <c r="C13">
         <v>903</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="str">
@@ -1092,7 +1089,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>904</v>
       </c>
@@ -1102,7 +1099,7 @@
       <c r="C14">
         <v>904</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="str">
@@ -1110,7 +1107,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>905</v>
       </c>
@@ -1120,7 +1117,7 @@
       <c r="C15">
         <v>905</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="str">
@@ -1128,7 +1125,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>906</v>
       </c>
@@ -1138,7 +1135,7 @@
       <c r="C16">
         <v>906</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="str">
@@ -1146,7 +1143,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>907</v>
       </c>
@@ -1156,7 +1153,7 @@
       <c r="C17">
         <v>907</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="str">
@@ -1164,7 +1161,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>908</v>
       </c>
@@ -1174,7 +1171,7 @@
       <c r="C18">
         <v>908</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="str">
@@ -1182,7 +1179,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>909</v>
       </c>
@@ -1192,7 +1189,7 @@
       <c r="C19">
         <v>909</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="str">
@@ -1210,15 +1207,15 @@
       <c r="C20">
         <v>910</v>
       </c>
-      <c r="D20" s="1">
-        <v>0</v>
+      <c r="D20">
+        <v>1</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>911</v>
       </c>
@@ -1228,7 +1225,7 @@
       <c r="C21">
         <v>911</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="str">
@@ -1236,7 +1233,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>912</v>
       </c>
@@ -1246,7 +1243,7 @@
       <c r="C22">
         <v>912</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="str">
@@ -1254,7 +1251,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>913</v>
       </c>
@@ -1264,7 +1261,7 @@
       <c r="C23">
         <v>913</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="str">
@@ -1272,7 +1269,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>914</v>
       </c>
@@ -1282,7 +1279,7 @@
       <c r="C24">
         <v>914</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="str">
@@ -1300,15 +1297,15 @@
       <c r="C25">
         <v>915</v>
       </c>
-      <c r="D25" s="1">
-        <v>1</v>
+      <c r="D25">
+        <v>0</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>916</v>
       </c>
@@ -1318,7 +1315,7 @@
       <c r="C26">
         <v>916</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="str">
@@ -1326,7 +1323,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>917</v>
       </c>
@@ -1336,7 +1333,7 @@
       <c r="C27">
         <v>917</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="str">
@@ -1344,7 +1341,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>918</v>
       </c>
@@ -1354,7 +1351,7 @@
       <c r="C28">
         <v>918</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="str">
@@ -1362,7 +1359,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>919</v>
       </c>
@@ -1372,7 +1369,7 @@
       <c r="C29">
         <v>919</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="str">
@@ -1380,7 +1377,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>920</v>
       </c>
@@ -1390,7 +1387,7 @@
       <c r="C30">
         <v>920</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="str">
@@ -1398,7 +1395,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>921</v>
       </c>
@@ -1408,7 +1405,7 @@
       <c r="C31">
         <v>921</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="str">
@@ -1416,7 +1413,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>922</v>
       </c>
@@ -1426,7 +1423,7 @@
       <c r="C32">
         <v>922</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="str">
@@ -1434,7 +1431,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>923</v>
       </c>
@@ -1444,7 +1441,7 @@
       <c r="C33">
         <v>923</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="str">
@@ -1452,7 +1449,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>924</v>
       </c>
@@ -1462,7 +1459,7 @@
       <c r="C34">
         <v>924</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="str">
@@ -1480,12 +1477,12 @@
       <c r="C35">
         <v>925</v>
       </c>
-      <c r="D35" s="1">
-        <v>0</v>
+      <c r="D35">
+        <v>1</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1498,15 +1495,15 @@
       <c r="C36">
         <v>926</v>
       </c>
-      <c r="D36" s="1">
-        <v>1</v>
+      <c r="D36">
+        <v>0</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>927</v>
       </c>
@@ -1516,7 +1513,7 @@
       <c r="C37">
         <v>927</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="str">
@@ -1524,7 +1521,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>928</v>
       </c>
@@ -1534,7 +1531,7 @@
       <c r="C38">
         <v>928</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="str">
@@ -1552,12 +1549,12 @@
       <c r="C39">
         <v>929</v>
       </c>
-      <c r="D39" s="1">
-        <v>0</v>
+      <c r="D39">
+        <v>1</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1570,12 +1567,12 @@
       <c r="C40">
         <v>930</v>
       </c>
-      <c r="D40" s="1">
-        <v>1</v>
+      <c r="D40">
+        <v>0</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1588,12 +1585,12 @@
       <c r="C41">
         <v>931</v>
       </c>
-      <c r="D41" s="1">
-        <v>1</v>
+      <c r="D41">
+        <v>0</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1606,12 +1603,12 @@
       <c r="C42">
         <v>932</v>
       </c>
-      <c r="D42" s="1">
-        <v>1</v>
+      <c r="D42">
+        <v>0</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1624,15 +1621,15 @@
       <c r="C43">
         <v>933</v>
       </c>
-      <c r="D43" s="1">
-        <v>0</v>
+      <c r="D43">
+        <v>1</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>934</v>
       </c>
@@ -1642,7 +1639,7 @@
       <c r="C44">
         <v>934</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="str">
@@ -1660,15 +1657,15 @@
       <c r="C45">
         <v>935</v>
       </c>
-      <c r="D45" s="1">
-        <v>0</v>
+      <c r="D45">
+        <v>1</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>936</v>
       </c>
@@ -1678,7 +1675,7 @@
       <c r="C46">
         <v>936</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="str">
@@ -1686,7 +1683,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>937</v>
       </c>
@@ -1696,7 +1693,7 @@
       <c r="C47">
         <v>937</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="str">
@@ -1714,15 +1711,15 @@
       <c r="C48">
         <v>938</v>
       </c>
-      <c r="D48" s="1">
-        <v>1</v>
+      <c r="D48">
+        <v>0</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>939</v>
       </c>
@@ -1732,7 +1729,7 @@
       <c r="C49">
         <v>939</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="str">
@@ -1740,7 +1737,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>940</v>
       </c>
@@ -1750,7 +1747,7 @@
       <c r="C50">
         <v>940</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="str">
@@ -1758,7 +1755,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>941</v>
       </c>
@@ -1768,7 +1765,7 @@
       <c r="C51">
         <v>941</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="str">
@@ -1776,7 +1773,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>942</v>
       </c>
@@ -1786,7 +1783,7 @@
       <c r="C52">
         <v>942</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" t="str">
@@ -1794,7 +1791,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>943</v>
       </c>
@@ -1804,7 +1801,7 @@
       <c r="C53">
         <v>943</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="str">
@@ -1812,7 +1809,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>944</v>
       </c>
@@ -1822,7 +1819,7 @@
       <c r="C54">
         <v>944</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="str">
@@ -1830,7 +1827,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>945</v>
       </c>
@@ -1840,7 +1837,7 @@
       <c r="C55">
         <v>945</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="str">
@@ -1848,7 +1845,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>946</v>
       </c>
@@ -1858,7 +1855,7 @@
       <c r="C56">
         <v>946</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="str">
@@ -1866,7 +1863,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>947</v>
       </c>
@@ -1876,7 +1873,7 @@
       <c r="C57">
         <v>947</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="str">
@@ -1884,7 +1881,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>948</v>
       </c>
@@ -1894,7 +1891,7 @@
       <c r="C58">
         <v>948</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="str">
@@ -1912,15 +1909,15 @@
       <c r="C59">
         <v>949</v>
       </c>
-      <c r="D59" s="1">
-        <v>1</v>
+      <c r="D59">
+        <v>0</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>950</v>
       </c>
@@ -1930,7 +1927,7 @@
       <c r="C60">
         <v>950</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="str">
@@ -1938,7 +1935,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>951</v>
       </c>
@@ -1948,7 +1945,7 @@
       <c r="C61">
         <v>951</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>1</v>
       </c>
       <c r="E61" t="str">
@@ -1956,7 +1953,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>952</v>
       </c>
@@ -1966,7 +1963,7 @@
       <c r="C62">
         <v>952</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="str">
@@ -1974,7 +1971,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>953</v>
       </c>
@@ -1984,7 +1981,7 @@
       <c r="C63">
         <v>953</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="str">
@@ -1992,7 +1989,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>954</v>
       </c>
@@ -2002,7 +1999,7 @@
       <c r="C64">
         <v>954</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" t="str">
@@ -2010,7 +2007,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>955</v>
       </c>
@@ -2020,7 +2017,7 @@
       <c r="C65">
         <v>955</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" t="str">
@@ -2028,7 +2025,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>956</v>
       </c>
@@ -2038,7 +2035,7 @@
       <c r="C66">
         <v>956</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" t="str">
@@ -2056,12 +2053,12 @@
       <c r="C67">
         <v>957</v>
       </c>
-      <c r="D67" s="1">
-        <v>0</v>
+      <c r="D67">
+        <v>1</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" ref="E67:E130" si="1">IF(B67=D67,"YES","NO")</f>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2074,15 +2071,15 @@
       <c r="C68">
         <v>958</v>
       </c>
-      <c r="D68" s="1">
-        <v>0</v>
+      <c r="D68">
+        <v>1</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>959</v>
       </c>
@@ -2092,7 +2089,7 @@
       <c r="C69">
         <v>959</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69">
         <v>0</v>
       </c>
       <c r="E69" t="str">
@@ -2110,15 +2107,15 @@
       <c r="C70">
         <v>960</v>
       </c>
-      <c r="D70" s="1">
-        <v>1</v>
+      <c r="D70">
+        <v>0</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>961</v>
       </c>
@@ -2128,7 +2125,7 @@
       <c r="C71">
         <v>961</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="str">
@@ -2136,7 +2133,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>962</v>
       </c>
@@ -2146,7 +2143,7 @@
       <c r="C72">
         <v>962</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72">
         <v>1</v>
       </c>
       <c r="E72" t="str">
@@ -2154,7 +2151,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>963</v>
       </c>
@@ -2164,7 +2161,7 @@
       <c r="C73">
         <v>963</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73">
         <v>0</v>
       </c>
       <c r="E73" t="str">
@@ -2182,15 +2179,15 @@
       <c r="C74">
         <v>964</v>
       </c>
-      <c r="D74" s="1">
-        <v>0</v>
+      <c r="D74">
+        <v>1</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>965</v>
       </c>
@@ -2200,7 +2197,7 @@
       <c r="C75">
         <v>965</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="str">
@@ -2208,7 +2205,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>966</v>
       </c>
@@ -2218,7 +2215,7 @@
       <c r="C76">
         <v>966</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76">
         <v>1</v>
       </c>
       <c r="E76" t="str">
@@ -2226,7 +2223,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>967</v>
       </c>
@@ -2236,7 +2233,7 @@
       <c r="C77">
         <v>967</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" t="str">
@@ -2244,7 +2241,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>968</v>
       </c>
@@ -2254,7 +2251,7 @@
       <c r="C78">
         <v>968</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="str">
@@ -2262,7 +2259,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>969</v>
       </c>
@@ -2272,7 +2269,7 @@
       <c r="C79">
         <v>969</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79">
         <v>1</v>
       </c>
       <c r="E79" t="str">
@@ -2280,7 +2277,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>970</v>
       </c>
@@ -2290,7 +2287,7 @@
       <c r="C80">
         <v>970</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80">
         <v>0</v>
       </c>
       <c r="E80" t="str">
@@ -2308,12 +2305,12 @@
       <c r="C81">
         <v>971</v>
       </c>
-      <c r="D81" s="1">
-        <v>0</v>
+      <c r="D81">
+        <v>1</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2326,15 +2323,15 @@
       <c r="C82">
         <v>972</v>
       </c>
-      <c r="D82" s="1">
-        <v>0</v>
+      <c r="D82">
+        <v>1</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>973</v>
       </c>
@@ -2344,7 +2341,7 @@
       <c r="C83">
         <v>973</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83">
         <v>0</v>
       </c>
       <c r="E83" t="str">
@@ -2352,7 +2349,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>974</v>
       </c>
@@ -2362,7 +2359,7 @@
       <c r="C84">
         <v>974</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84">
         <v>0</v>
       </c>
       <c r="E84" t="str">
@@ -2370,7 +2367,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>975</v>
       </c>
@@ -2380,7 +2377,7 @@
       <c r="C85">
         <v>975</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85">
         <v>0</v>
       </c>
       <c r="E85" t="str">
@@ -2388,7 +2385,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>976</v>
       </c>
@@ -2398,7 +2395,7 @@
       <c r="C86">
         <v>976</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86">
         <v>0</v>
       </c>
       <c r="E86" t="str">
@@ -2406,7 +2403,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>977</v>
       </c>
@@ -2416,7 +2413,7 @@
       <c r="C87">
         <v>977</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87">
         <v>0</v>
       </c>
       <c r="E87" t="str">
@@ -2434,15 +2431,15 @@
       <c r="C88">
         <v>978</v>
       </c>
-      <c r="D88" s="1">
-        <v>0</v>
+      <c r="D88">
+        <v>1</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>979</v>
       </c>
@@ -2452,7 +2449,7 @@
       <c r="C89">
         <v>979</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89">
         <v>1</v>
       </c>
       <c r="E89" t="str">
@@ -2470,15 +2467,15 @@
       <c r="C90">
         <v>980</v>
       </c>
-      <c r="D90" s="1">
-        <v>0</v>
+      <c r="D90">
+        <v>1</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>981</v>
       </c>
@@ -2488,7 +2485,7 @@
       <c r="C91">
         <v>981</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91">
         <v>1</v>
       </c>
       <c r="E91" t="str">
@@ -2496,7 +2493,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>982</v>
       </c>
@@ -2506,7 +2503,7 @@
       <c r="C92">
         <v>982</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92">
         <v>1</v>
       </c>
       <c r="E92" t="str">
@@ -2514,7 +2511,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>983</v>
       </c>
@@ -2524,7 +2521,7 @@
       <c r="C93">
         <v>983</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93">
         <v>0</v>
       </c>
       <c r="E93" t="str">
@@ -2532,7 +2529,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>984</v>
       </c>
@@ -2542,7 +2539,7 @@
       <c r="C94">
         <v>984</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94">
         <v>1</v>
       </c>
       <c r="E94" t="str">
@@ -2550,7 +2547,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>985</v>
       </c>
@@ -2560,7 +2557,7 @@
       <c r="C95">
         <v>985</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95">
         <v>0</v>
       </c>
       <c r="E95" t="str">
@@ -2568,7 +2565,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>986</v>
       </c>
@@ -2578,7 +2575,7 @@
       <c r="C96">
         <v>986</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96">
         <v>0</v>
       </c>
       <c r="E96" t="str">
@@ -2596,15 +2593,15 @@
       <c r="C97">
         <v>987</v>
       </c>
-      <c r="D97" s="1">
-        <v>1</v>
+      <c r="D97">
+        <v>0</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>988</v>
       </c>
@@ -2614,7 +2611,7 @@
       <c r="C98">
         <v>988</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98">
         <v>1</v>
       </c>
       <c r="E98" t="str">
@@ -2622,7 +2619,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>989</v>
       </c>
@@ -2632,7 +2629,7 @@
       <c r="C99">
         <v>989</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99">
         <v>0</v>
       </c>
       <c r="E99" t="str">
@@ -2650,15 +2647,15 @@
       <c r="C100">
         <v>990</v>
       </c>
-      <c r="D100" s="1">
-        <v>0</v>
+      <c r="D100">
+        <v>1</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>991</v>
       </c>
@@ -2668,7 +2665,7 @@
       <c r="C101">
         <v>991</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101">
         <v>0</v>
       </c>
       <c r="E101" t="str">
@@ -2676,7 +2673,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>992</v>
       </c>
@@ -2686,7 +2683,7 @@
       <c r="C102">
         <v>992</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102">
         <v>1</v>
       </c>
       <c r="E102" t="str">
@@ -2694,7 +2691,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>993</v>
       </c>
@@ -2704,7 +2701,7 @@
       <c r="C103">
         <v>993</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103">
         <v>0</v>
       </c>
       <c r="E103" t="str">
@@ -2712,7 +2709,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>994</v>
       </c>
@@ -2722,7 +2719,7 @@
       <c r="C104">
         <v>994</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104">
         <v>0</v>
       </c>
       <c r="E104" t="str">
@@ -2740,15 +2737,15 @@
       <c r="C105">
         <v>995</v>
       </c>
-      <c r="D105" s="1">
-        <v>1</v>
+      <c r="D105">
+        <v>0</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>996</v>
       </c>
@@ -2758,7 +2755,7 @@
       <c r="C106">
         <v>996</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106">
         <v>1</v>
       </c>
       <c r="E106" t="str">
@@ -2766,7 +2763,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>997</v>
       </c>
@@ -2776,7 +2773,7 @@
       <c r="C107">
         <v>997</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107">
         <v>0</v>
       </c>
       <c r="E107" t="str">
@@ -2794,12 +2791,12 @@
       <c r="C108">
         <v>998</v>
       </c>
-      <c r="D108" s="1">
-        <v>1</v>
+      <c r="D108">
+        <v>0</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2812,15 +2809,15 @@
       <c r="C109">
         <v>999</v>
       </c>
-      <c r="D109" s="1">
-        <v>1</v>
+      <c r="D109">
+        <v>0</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1000</v>
       </c>
@@ -2830,7 +2827,7 @@
       <c r="C110">
         <v>1000</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110">
         <v>0</v>
       </c>
       <c r="E110" t="str">
@@ -2838,7 +2835,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1001</v>
       </c>
@@ -2848,7 +2845,7 @@
       <c r="C111">
         <v>1001</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111">
         <v>0</v>
       </c>
       <c r="E111" t="str">
@@ -2856,7 +2853,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1002</v>
       </c>
@@ -2866,7 +2863,7 @@
       <c r="C112">
         <v>1002</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112">
         <v>0</v>
       </c>
       <c r="E112" t="str">
@@ -2874,7 +2871,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1003</v>
       </c>
@@ -2884,7 +2881,7 @@
       <c r="C113">
         <v>1003</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113">
         <v>1</v>
       </c>
       <c r="E113" t="str">
@@ -2902,12 +2899,12 @@
       <c r="C114">
         <v>1004</v>
       </c>
-      <c r="D114" s="1">
-        <v>0</v>
+      <c r="D114">
+        <v>1</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2920,12 +2917,12 @@
       <c r="C115">
         <v>1005</v>
       </c>
-      <c r="D115" s="1">
-        <v>0</v>
+      <c r="D115">
+        <v>1</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2938,15 +2935,15 @@
       <c r="C116">
         <v>1006</v>
       </c>
-      <c r="D116" s="1">
-        <v>0</v>
+      <c r="D116">
+        <v>1</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1007</v>
       </c>
@@ -2956,7 +2953,7 @@
       <c r="C117">
         <v>1007</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117">
         <v>0</v>
       </c>
       <c r="E117" t="str">
@@ -2964,7 +2961,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1008</v>
       </c>
@@ -2974,7 +2971,7 @@
       <c r="C118">
         <v>1008</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118">
         <v>0</v>
       </c>
       <c r="E118" t="str">
@@ -2982,7 +2979,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1009</v>
       </c>
@@ -2992,7 +2989,7 @@
       <c r="C119">
         <v>1009</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119">
         <v>1</v>
       </c>
       <c r="E119" t="str">
@@ -3000,7 +2997,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1010</v>
       </c>
@@ -3010,7 +3007,7 @@
       <c r="C120">
         <v>1010</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120">
         <v>0</v>
       </c>
       <c r="E120" t="str">
@@ -3028,15 +3025,15 @@
       <c r="C121">
         <v>1011</v>
       </c>
-      <c r="D121" s="1">
-        <v>0</v>
+      <c r="D121">
+        <v>1</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1012</v>
       </c>
@@ -3046,7 +3043,7 @@
       <c r="C122">
         <v>1012</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122">
         <v>1</v>
       </c>
       <c r="E122" t="str">
@@ -3054,7 +3051,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1013</v>
       </c>
@@ -3064,7 +3061,7 @@
       <c r="C123">
         <v>1013</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123">
         <v>0</v>
       </c>
       <c r="E123" t="str">
@@ -3072,7 +3069,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1014</v>
       </c>
@@ -3082,7 +3079,7 @@
       <c r="C124">
         <v>1014</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124">
         <v>1</v>
       </c>
       <c r="E124" t="str">
@@ -3090,7 +3087,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1015</v>
       </c>
@@ -3100,7 +3097,7 @@
       <c r="C125">
         <v>1015</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125">
         <v>0</v>
       </c>
       <c r="E125" t="str">
@@ -3118,15 +3115,15 @@
       <c r="C126">
         <v>1016</v>
       </c>
-      <c r="D126" s="1">
-        <v>1</v>
+      <c r="D126">
+        <v>0</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1017</v>
       </c>
@@ -3136,7 +3133,7 @@
       <c r="C127">
         <v>1017</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D127">
         <v>1</v>
       </c>
       <c r="E127" t="str">
@@ -3144,7 +3141,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1018</v>
       </c>
@@ -3154,7 +3151,7 @@
       <c r="C128">
         <v>1018</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128">
         <v>0</v>
       </c>
       <c r="E128" t="str">
@@ -3162,7 +3159,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1019</v>
       </c>
@@ -3172,7 +3169,7 @@
       <c r="C129">
         <v>1019</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129">
         <v>1</v>
       </c>
       <c r="E129" t="str">
@@ -3180,7 +3177,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1020</v>
       </c>
@@ -3190,7 +3187,7 @@
       <c r="C130">
         <v>1020</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130">
         <v>0</v>
       </c>
       <c r="E130" t="str">
@@ -3198,7 +3195,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1021</v>
       </c>
@@ -3208,7 +3205,7 @@
       <c r="C131">
         <v>1021</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131">
         <v>0</v>
       </c>
       <c r="E131" t="str">
@@ -3216,7 +3213,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1022</v>
       </c>
@@ -3226,7 +3223,7 @@
       <c r="C132">
         <v>1022</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132">
         <v>0</v>
       </c>
       <c r="E132" t="str">
@@ -3244,15 +3241,15 @@
       <c r="C133">
         <v>1023</v>
       </c>
-      <c r="D133" s="1">
-        <v>1</v>
+      <c r="D133">
+        <v>0</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1024</v>
       </c>
@@ -3262,7 +3259,7 @@
       <c r="C134">
         <v>1024</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134">
         <v>0</v>
       </c>
       <c r="E134" t="str">
@@ -3270,7 +3267,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1025</v>
       </c>
@@ -3280,7 +3277,7 @@
       <c r="C135">
         <v>1025</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D135">
         <v>0</v>
       </c>
       <c r="E135" t="str">
@@ -3288,7 +3285,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1026</v>
       </c>
@@ -3298,7 +3295,7 @@
       <c r="C136">
         <v>1026</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D136">
         <v>0</v>
       </c>
       <c r="E136" t="str">
@@ -3306,7 +3303,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1027</v>
       </c>
@@ -3316,7 +3313,7 @@
       <c r="C137">
         <v>1027</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137">
         <v>0</v>
       </c>
       <c r="E137" t="str">
@@ -3324,7 +3321,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1028</v>
       </c>
@@ -3334,7 +3331,7 @@
       <c r="C138">
         <v>1028</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D138">
         <v>0</v>
       </c>
       <c r="E138" t="str">
@@ -3342,7 +3339,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1029</v>
       </c>
@@ -3352,7 +3349,7 @@
       <c r="C139">
         <v>1029</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D139">
         <v>0</v>
       </c>
       <c r="E139" t="str">
@@ -3360,7 +3357,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1030</v>
       </c>
@@ -3370,7 +3367,7 @@
       <c r="C140">
         <v>1030</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140">
         <v>1</v>
       </c>
       <c r="E140" t="str">
@@ -3378,7 +3375,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1031</v>
       </c>
@@ -3388,7 +3385,7 @@
       <c r="C141">
         <v>1031</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D141">
         <v>0</v>
       </c>
       <c r="E141" t="str">
@@ -3396,7 +3393,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1032</v>
       </c>
@@ -3406,7 +3403,7 @@
       <c r="C142">
         <v>1032</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142">
         <v>0</v>
       </c>
       <c r="E142" t="str">
@@ -3414,7 +3411,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1033</v>
       </c>
@@ -3424,7 +3421,7 @@
       <c r="C143">
         <v>1033</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143">
         <v>1</v>
       </c>
       <c r="E143" t="str">
@@ -3432,7 +3429,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1034</v>
       </c>
@@ -3442,7 +3439,7 @@
       <c r="C144">
         <v>1034</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144">
         <v>0</v>
       </c>
       <c r="E144" t="str">
@@ -3450,7 +3447,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1035</v>
       </c>
@@ -3460,7 +3457,7 @@
       <c r="C145">
         <v>1035</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145">
         <v>0</v>
       </c>
       <c r="E145" t="str">
@@ -3478,15 +3475,15 @@
       <c r="C146">
         <v>1036</v>
       </c>
-      <c r="D146" s="1">
-        <v>0</v>
+      <c r="D146">
+        <v>1</v>
       </c>
       <c r="E146" t="str">
         <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1037</v>
       </c>
@@ -3496,7 +3493,7 @@
       <c r="C147">
         <v>1037</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D147">
         <v>0</v>
       </c>
       <c r="E147" t="str">
@@ -3504,7 +3501,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1038</v>
       </c>
@@ -3514,7 +3511,7 @@
       <c r="C148">
         <v>1038</v>
       </c>
-      <c r="D148" s="1">
+      <c r="D148">
         <v>0</v>
       </c>
       <c r="E148" t="str">
@@ -3522,7 +3519,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1039</v>
       </c>
@@ -3532,7 +3529,7 @@
       <c r="C149">
         <v>1039</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D149">
         <v>0</v>
       </c>
       <c r="E149" t="str">
@@ -3550,15 +3547,15 @@
       <c r="C150">
         <v>1040</v>
       </c>
-      <c r="D150" s="1">
-        <v>0</v>
+      <c r="D150">
+        <v>1</v>
       </c>
       <c r="E150" t="str">
         <f t="shared" si="2"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1041</v>
       </c>
@@ -3568,7 +3565,7 @@
       <c r="C151">
         <v>1041</v>
       </c>
-      <c r="D151" s="1">
+      <c r="D151">
         <v>0</v>
       </c>
       <c r="E151" t="str">
@@ -3576,7 +3573,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1042</v>
       </c>
@@ -3586,7 +3583,7 @@
       <c r="C152">
         <v>1042</v>
       </c>
-      <c r="D152" s="1">
+      <c r="D152">
         <v>1</v>
       </c>
       <c r="E152" t="str">
@@ -3594,7 +3591,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1043</v>
       </c>
@@ -3604,7 +3601,7 @@
       <c r="C153">
         <v>1043</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D153">
         <v>0</v>
       </c>
       <c r="E153" t="str">
@@ -3612,7 +3609,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1044</v>
       </c>
@@ -3622,7 +3619,7 @@
       <c r="C154">
         <v>1044</v>
       </c>
-      <c r="D154" s="1">
+      <c r="D154">
         <v>0</v>
       </c>
       <c r="E154" t="str">
@@ -3640,15 +3637,15 @@
       <c r="C155">
         <v>1045</v>
       </c>
-      <c r="D155" s="1">
-        <v>0</v>
+      <c r="D155">
+        <v>1</v>
       </c>
       <c r="E155" t="str">
         <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1046</v>
       </c>
@@ -3658,7 +3655,7 @@
       <c r="C156">
         <v>1046</v>
       </c>
-      <c r="D156" s="1">
+      <c r="D156">
         <v>0</v>
       </c>
       <c r="E156" t="str">
@@ -3676,15 +3673,15 @@
       <c r="C157">
         <v>1047</v>
       </c>
-      <c r="D157" s="1">
-        <v>1</v>
+      <c r="D157">
+        <v>0</v>
       </c>
       <c r="E157" t="str">
         <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1048</v>
       </c>
@@ -3694,7 +3691,7 @@
       <c r="C158">
         <v>1048</v>
       </c>
-      <c r="D158" s="1">
+      <c r="D158">
         <v>1</v>
       </c>
       <c r="E158" t="str">
@@ -3702,7 +3699,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1049</v>
       </c>
@@ -3712,7 +3709,7 @@
       <c r="C159">
         <v>1049</v>
       </c>
-      <c r="D159" s="1">
+      <c r="D159">
         <v>1</v>
       </c>
       <c r="E159" t="str">
@@ -3730,12 +3727,12 @@
       <c r="C160">
         <v>1050</v>
       </c>
-      <c r="D160" s="1">
-        <v>0</v>
+      <c r="D160">
+        <v>1</v>
       </c>
       <c r="E160" t="str">
         <f t="shared" si="2"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -3748,15 +3745,15 @@
       <c r="C161">
         <v>1051</v>
       </c>
-      <c r="D161" s="1">
-        <v>0</v>
+      <c r="D161">
+        <v>1</v>
       </c>
       <c r="E161" t="str">
         <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1052</v>
       </c>
@@ -3766,7 +3763,7 @@
       <c r="C162">
         <v>1052</v>
       </c>
-      <c r="D162" s="1">
+      <c r="D162">
         <v>1</v>
       </c>
       <c r="E162" t="str">
@@ -3774,7 +3771,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1053</v>
       </c>
@@ -3784,7 +3781,7 @@
       <c r="C163">
         <v>1053</v>
       </c>
-      <c r="D163" s="1">
+      <c r="D163">
         <v>1</v>
       </c>
       <c r="E163" t="str">
@@ -3792,7 +3789,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1054</v>
       </c>
@@ -3802,7 +3799,7 @@
       <c r="C164">
         <v>1054</v>
       </c>
-      <c r="D164" s="1">
+      <c r="D164">
         <v>1</v>
       </c>
       <c r="E164" t="str">
@@ -3810,7 +3807,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1055</v>
       </c>
@@ -3820,7 +3817,7 @@
       <c r="C165">
         <v>1055</v>
       </c>
-      <c r="D165" s="1">
+      <c r="D165">
         <v>0</v>
       </c>
       <c r="E165" t="str">
@@ -3828,7 +3825,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1056</v>
       </c>
@@ -3838,7 +3835,7 @@
       <c r="C166">
         <v>1056</v>
       </c>
-      <c r="D166" s="1">
+      <c r="D166">
         <v>0</v>
       </c>
       <c r="E166" t="str">
@@ -3846,7 +3843,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1057</v>
       </c>
@@ -3856,7 +3853,7 @@
       <c r="C167">
         <v>1057</v>
       </c>
-      <c r="D167" s="1">
+      <c r="D167">
         <v>1</v>
       </c>
       <c r="E167" t="str">
@@ -3864,7 +3861,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1058</v>
       </c>
@@ -3874,7 +3871,7 @@
       <c r="C168">
         <v>1058</v>
       </c>
-      <c r="D168" s="1">
+      <c r="D168">
         <v>0</v>
       </c>
       <c r="E168" t="str">
@@ -3882,7 +3879,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1059</v>
       </c>
@@ -3892,7 +3889,7 @@
       <c r="C169">
         <v>1059</v>
       </c>
-      <c r="D169" s="1">
+      <c r="D169">
         <v>0</v>
       </c>
       <c r="E169" t="str">
@@ -3900,7 +3897,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1060</v>
       </c>
@@ -3910,7 +3907,7 @@
       <c r="C170">
         <v>1060</v>
       </c>
-      <c r="D170" s="1">
+      <c r="D170">
         <v>1</v>
       </c>
       <c r="E170" t="str">
@@ -3918,7 +3915,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1061</v>
       </c>
@@ -3928,7 +3925,7 @@
       <c r="C171">
         <v>1061</v>
       </c>
-      <c r="D171" s="1">
+      <c r="D171">
         <v>1</v>
       </c>
       <c r="E171" t="str">
@@ -3936,7 +3933,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1062</v>
       </c>
@@ -3946,7 +3943,7 @@
       <c r="C172">
         <v>1062</v>
       </c>
-      <c r="D172" s="1">
+      <c r="D172">
         <v>0</v>
       </c>
       <c r="E172" t="str">
@@ -3954,7 +3951,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1063</v>
       </c>
@@ -3964,7 +3961,7 @@
       <c r="C173">
         <v>1063</v>
       </c>
-      <c r="D173" s="1">
+      <c r="D173">
         <v>0</v>
       </c>
       <c r="E173" t="str">
@@ -3972,7 +3969,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1064</v>
       </c>
@@ -3982,7 +3979,7 @@
       <c r="C174">
         <v>1064</v>
       </c>
-      <c r="D174" s="1">
+      <c r="D174">
         <v>0</v>
       </c>
       <c r="E174" t="str">
@@ -3990,7 +3987,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1065</v>
       </c>
@@ -4000,7 +3997,7 @@
       <c r="C175">
         <v>1065</v>
       </c>
-      <c r="D175" s="1">
+      <c r="D175">
         <v>0</v>
       </c>
       <c r="E175" t="str">
@@ -4008,7 +4005,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1066</v>
       </c>
@@ -4018,7 +4015,7 @@
       <c r="C176">
         <v>1066</v>
       </c>
-      <c r="D176" s="1">
+      <c r="D176">
         <v>0</v>
       </c>
       <c r="E176" t="str">
@@ -4026,7 +4023,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1067</v>
       </c>
@@ -4036,7 +4033,7 @@
       <c r="C177">
         <v>1067</v>
       </c>
-      <c r="D177" s="1">
+      <c r="D177">
         <v>1</v>
       </c>
       <c r="E177" t="str">
@@ -4044,7 +4041,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1068</v>
       </c>
@@ -4054,7 +4051,7 @@
       <c r="C178">
         <v>1068</v>
       </c>
-      <c r="D178" s="1">
+      <c r="D178">
         <v>1</v>
       </c>
       <c r="E178" t="str">
@@ -4072,15 +4069,15 @@
       <c r="C179">
         <v>1069</v>
       </c>
-      <c r="D179" s="1">
-        <v>1</v>
+      <c r="D179">
+        <v>0</v>
       </c>
       <c r="E179" t="str">
         <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1070</v>
       </c>
@@ -4090,7 +4087,7 @@
       <c r="C180">
         <v>1070</v>
       </c>
-      <c r="D180" s="1">
+      <c r="D180">
         <v>1</v>
       </c>
       <c r="E180" t="str">
@@ -4098,7 +4095,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1071</v>
       </c>
@@ -4108,7 +4105,7 @@
       <c r="C181">
         <v>1071</v>
       </c>
-      <c r="D181" s="1">
+      <c r="D181">
         <v>1</v>
       </c>
       <c r="E181" t="str">
@@ -4116,7 +4113,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1072</v>
       </c>
@@ -4126,7 +4123,7 @@
       <c r="C182">
         <v>1072</v>
       </c>
-      <c r="D182" s="1">
+      <c r="D182">
         <v>0</v>
       </c>
       <c r="E182" t="str">
@@ -4134,7 +4131,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1073</v>
       </c>
@@ -4144,7 +4141,7 @@
       <c r="C183">
         <v>1073</v>
       </c>
-      <c r="D183" s="1">
+      <c r="D183">
         <v>0</v>
       </c>
       <c r="E183" t="str">
@@ -4152,7 +4149,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1074</v>
       </c>
@@ -4162,7 +4159,7 @@
       <c r="C184">
         <v>1074</v>
       </c>
-      <c r="D184" s="1">
+      <c r="D184">
         <v>1</v>
       </c>
       <c r="E184" t="str">
@@ -4170,7 +4167,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1075</v>
       </c>
@@ -4180,7 +4177,7 @@
       <c r="C185">
         <v>1075</v>
       </c>
-      <c r="D185" s="1">
+      <c r="D185">
         <v>0</v>
       </c>
       <c r="E185" t="str">
@@ -4188,7 +4185,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1076</v>
       </c>
@@ -4198,7 +4195,7 @@
       <c r="C186">
         <v>1076</v>
       </c>
-      <c r="D186" s="1">
+      <c r="D186">
         <v>1</v>
       </c>
       <c r="E186" t="str">
@@ -4206,7 +4203,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1077</v>
       </c>
@@ -4216,7 +4213,7 @@
       <c r="C187">
         <v>1077</v>
       </c>
-      <c r="D187" s="1">
+      <c r="D187">
         <v>0</v>
       </c>
       <c r="E187" t="str">
@@ -4224,7 +4221,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1078</v>
       </c>
@@ -4234,7 +4231,7 @@
       <c r="C188">
         <v>1078</v>
       </c>
-      <c r="D188" s="1">
+      <c r="D188">
         <v>1</v>
       </c>
       <c r="E188" t="str">
@@ -4242,7 +4239,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1079</v>
       </c>
@@ -4252,7 +4249,7 @@
       <c r="C189">
         <v>1079</v>
       </c>
-      <c r="D189" s="1">
+      <c r="D189">
         <v>0</v>
       </c>
       <c r="E189" t="str">
@@ -4260,7 +4257,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1080</v>
       </c>
@@ -4270,7 +4267,7 @@
       <c r="C190">
         <v>1080</v>
       </c>
-      <c r="D190" s="1">
+      <c r="D190">
         <v>0</v>
       </c>
       <c r="E190" t="str">
@@ -4278,7 +4275,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1081</v>
       </c>
@@ -4288,7 +4285,7 @@
       <c r="C191">
         <v>1081</v>
       </c>
-      <c r="D191" s="1">
+      <c r="D191">
         <v>0</v>
       </c>
       <c r="E191" t="str">
@@ -4296,7 +4293,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1082</v>
       </c>
@@ -4306,7 +4303,7 @@
       <c r="C192">
         <v>1082</v>
       </c>
-      <c r="D192" s="1">
+      <c r="D192">
         <v>0</v>
       </c>
       <c r="E192" t="str">
@@ -4324,12 +4321,12 @@
       <c r="C193">
         <v>1083</v>
       </c>
-      <c r="D193" s="1">
-        <v>1</v>
+      <c r="D193">
+        <v>0</v>
       </c>
       <c r="E193" t="str">
         <f t="shared" si="2"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -4342,15 +4339,15 @@
       <c r="C194">
         <v>1084</v>
       </c>
-      <c r="D194" s="1">
-        <v>0</v>
+      <c r="D194">
+        <v>1</v>
       </c>
       <c r="E194" t="str">
         <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1085</v>
       </c>
@@ -4360,7 +4357,7 @@
       <c r="C195">
         <v>1085</v>
       </c>
-      <c r="D195" s="1">
+      <c r="D195">
         <v>0</v>
       </c>
       <c r="E195" t="str">
@@ -4368,7 +4365,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1086</v>
       </c>
@@ -4378,7 +4375,7 @@
       <c r="C196">
         <v>1086</v>
       </c>
-      <c r="D196" s="1">
+      <c r="D196">
         <v>1</v>
       </c>
       <c r="E196" t="str">
@@ -4386,7 +4383,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1087</v>
       </c>
@@ -4396,7 +4393,7 @@
       <c r="C197">
         <v>1087</v>
       </c>
-      <c r="D197" s="1">
+      <c r="D197">
         <v>0</v>
       </c>
       <c r="E197" t="str">
@@ -4404,7 +4401,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1088</v>
       </c>
@@ -4414,7 +4411,7 @@
       <c r="C198">
         <v>1088</v>
       </c>
-      <c r="D198" s="1">
+      <c r="D198">
         <v>1</v>
       </c>
       <c r="E198" t="str">
@@ -4422,7 +4419,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1089</v>
       </c>
@@ -4432,7 +4429,7 @@
       <c r="C199">
         <v>1089</v>
       </c>
-      <c r="D199" s="1">
+      <c r="D199">
         <v>1</v>
       </c>
       <c r="E199" t="str">
@@ -4440,7 +4437,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1090</v>
       </c>
@@ -4450,7 +4447,7 @@
       <c r="C200">
         <v>1090</v>
       </c>
-      <c r="D200" s="1">
+      <c r="D200">
         <v>0</v>
       </c>
       <c r="E200" t="str">
@@ -4468,15 +4465,15 @@
       <c r="C201">
         <v>1091</v>
       </c>
-      <c r="D201" s="1">
-        <v>0</v>
+      <c r="D201">
+        <v>1</v>
       </c>
       <c r="E201" t="str">
         <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1092</v>
       </c>
@@ -4486,7 +4483,7 @@
       <c r="C202">
         <v>1092</v>
       </c>
-      <c r="D202" s="1">
+      <c r="D202">
         <v>1</v>
       </c>
       <c r="E202" t="str">
@@ -4504,15 +4501,15 @@
       <c r="C203">
         <v>1093</v>
       </c>
-      <c r="D203" s="1">
-        <v>0</v>
+      <c r="D203">
+        <v>1</v>
       </c>
       <c r="E203" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1094</v>
       </c>
@@ -4522,7 +4519,7 @@
       <c r="C204">
         <v>1094</v>
       </c>
-      <c r="D204" s="1">
+      <c r="D204">
         <v>0</v>
       </c>
       <c r="E204" t="str">
@@ -4530,7 +4527,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1095</v>
       </c>
@@ -4540,7 +4537,7 @@
       <c r="C205">
         <v>1095</v>
       </c>
-      <c r="D205" s="1">
+      <c r="D205">
         <v>1</v>
       </c>
       <c r="E205" t="str">
@@ -4548,7 +4545,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1096</v>
       </c>
@@ -4558,7 +4555,7 @@
       <c r="C206">
         <v>1096</v>
       </c>
-      <c r="D206" s="1">
+      <c r="D206">
         <v>0</v>
       </c>
       <c r="E206" t="str">
@@ -4576,12 +4573,12 @@
       <c r="C207">
         <v>1097</v>
       </c>
-      <c r="D207" s="1">
-        <v>1</v>
+      <c r="D207">
+        <v>0</v>
       </c>
       <c r="E207" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -4594,12 +4591,12 @@
       <c r="C208">
         <v>1098</v>
       </c>
-      <c r="D208" s="1">
-        <v>0</v>
+      <c r="D208">
+        <v>1</v>
       </c>
       <c r="E208" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -4612,15 +4609,15 @@
       <c r="C209">
         <v>1099</v>
       </c>
-      <c r="D209" s="1">
-        <v>1</v>
+      <c r="D209">
+        <v>0</v>
       </c>
       <c r="E209" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1100</v>
       </c>
@@ -4630,7 +4627,7 @@
       <c r="C210">
         <v>1100</v>
       </c>
-      <c r="D210" s="1">
+      <c r="D210">
         <v>1</v>
       </c>
       <c r="E210" t="str">
@@ -4638,7 +4635,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1101</v>
       </c>
@@ -4648,7 +4645,7 @@
       <c r="C211">
         <v>1101</v>
       </c>
-      <c r="D211" s="1">
+      <c r="D211">
         <v>0</v>
       </c>
       <c r="E211" t="str">
@@ -4656,7 +4653,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1102</v>
       </c>
@@ -4666,7 +4663,7 @@
       <c r="C212">
         <v>1102</v>
       </c>
-      <c r="D212" s="1">
+      <c r="D212">
         <v>0</v>
       </c>
       <c r="E212" t="str">
@@ -4684,15 +4681,15 @@
       <c r="C213">
         <v>1103</v>
       </c>
-      <c r="D213" s="1">
-        <v>1</v>
+      <c r="D213">
+        <v>0</v>
       </c>
       <c r="E213" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1104</v>
       </c>
@@ -4702,7 +4699,7 @@
       <c r="C214">
         <v>1104</v>
       </c>
-      <c r="D214" s="1">
+      <c r="D214">
         <v>0</v>
       </c>
       <c r="E214" t="str">
@@ -4720,15 +4717,15 @@
       <c r="C215">
         <v>1105</v>
       </c>
-      <c r="D215" s="1">
-        <v>0</v>
+      <c r="D215">
+        <v>1</v>
       </c>
       <c r="E215" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1106</v>
       </c>
@@ -4738,7 +4735,7 @@
       <c r="C216">
         <v>1106</v>
       </c>
-      <c r="D216" s="1">
+      <c r="D216">
         <v>0</v>
       </c>
       <c r="E216" t="str">
@@ -4746,7 +4743,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1107</v>
       </c>
@@ -4756,7 +4753,7 @@
       <c r="C217">
         <v>1107</v>
       </c>
-      <c r="D217" s="1">
+      <c r="D217">
         <v>0</v>
       </c>
       <c r="E217" t="str">
@@ -4774,15 +4771,15 @@
       <c r="C218">
         <v>1108</v>
       </c>
-      <c r="D218" s="1">
-        <v>0</v>
+      <c r="D218">
+        <v>1</v>
       </c>
       <c r="E218" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1109</v>
       </c>
@@ -4792,7 +4789,7 @@
       <c r="C219">
         <v>1109</v>
       </c>
-      <c r="D219" s="1">
+      <c r="D219">
         <v>0</v>
       </c>
       <c r="E219" t="str">
@@ -4800,7 +4797,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1110</v>
       </c>
@@ -4810,7 +4807,7 @@
       <c r="C220">
         <v>1110</v>
       </c>
-      <c r="D220" s="1">
+      <c r="D220">
         <v>1</v>
       </c>
       <c r="E220" t="str">
@@ -4818,7 +4815,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1111</v>
       </c>
@@ -4828,7 +4825,7 @@
       <c r="C221">
         <v>1111</v>
       </c>
-      <c r="D221" s="1">
+      <c r="D221">
         <v>0</v>
       </c>
       <c r="E221" t="str">
@@ -4836,7 +4833,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1112</v>
       </c>
@@ -4846,7 +4843,7 @@
       <c r="C222">
         <v>1112</v>
       </c>
-      <c r="D222" s="1">
+      <c r="D222">
         <v>1</v>
       </c>
       <c r="E222" t="str">
@@ -4854,7 +4851,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1113</v>
       </c>
@@ -4864,7 +4861,7 @@
       <c r="C223">
         <v>1113</v>
       </c>
-      <c r="D223" s="1">
+      <c r="D223">
         <v>0</v>
       </c>
       <c r="E223" t="str">
@@ -4872,7 +4869,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1114</v>
       </c>
@@ -4882,7 +4879,7 @@
       <c r="C224">
         <v>1114</v>
       </c>
-      <c r="D224" s="1">
+      <c r="D224">
         <v>1</v>
       </c>
       <c r="E224" t="str">
@@ -4900,15 +4897,15 @@
       <c r="C225">
         <v>1115</v>
       </c>
-      <c r="D225" s="1">
-        <v>1</v>
+      <c r="D225">
+        <v>0</v>
       </c>
       <c r="E225" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1116</v>
       </c>
@@ -4918,7 +4915,7 @@
       <c r="C226">
         <v>1116</v>
       </c>
-      <c r="D226" s="1">
+      <c r="D226">
         <v>1</v>
       </c>
       <c r="E226" t="str">
@@ -4926,7 +4923,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1117</v>
       </c>
@@ -4936,7 +4933,7 @@
       <c r="C227">
         <v>1117</v>
       </c>
-      <c r="D227" s="1">
+      <c r="D227">
         <v>1</v>
       </c>
       <c r="E227" t="str">
@@ -4954,12 +4951,12 @@
       <c r="C228">
         <v>1118</v>
       </c>
-      <c r="D228" s="1">
-        <v>1</v>
+      <c r="D228">
+        <v>0</v>
       </c>
       <c r="E228" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -4972,15 +4969,15 @@
       <c r="C229">
         <v>1119</v>
       </c>
-      <c r="D229" s="1">
-        <v>0</v>
+      <c r="D229">
+        <v>1</v>
       </c>
       <c r="E229" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1120</v>
       </c>
@@ -4990,7 +4987,7 @@
       <c r="C230">
         <v>1120</v>
       </c>
-      <c r="D230" s="1">
+      <c r="D230">
         <v>0</v>
       </c>
       <c r="E230" t="str">
@@ -4998,7 +4995,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1121</v>
       </c>
@@ -5008,7 +5005,7 @@
       <c r="C231">
         <v>1121</v>
       </c>
-      <c r="D231" s="1">
+      <c r="D231">
         <v>0</v>
       </c>
       <c r="E231" t="str">
@@ -5016,7 +5013,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1122</v>
       </c>
@@ -5026,7 +5023,7 @@
       <c r="C232">
         <v>1122</v>
       </c>
-      <c r="D232" s="1">
+      <c r="D232">
         <v>0</v>
       </c>
       <c r="E232" t="str">
@@ -5034,7 +5031,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1123</v>
       </c>
@@ -5044,7 +5041,7 @@
       <c r="C233">
         <v>1123</v>
       </c>
-      <c r="D233" s="1">
+      <c r="D233">
         <v>1</v>
       </c>
       <c r="E233" t="str">
@@ -5052,7 +5049,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1124</v>
       </c>
@@ -5062,7 +5059,7 @@
       <c r="C234">
         <v>1124</v>
       </c>
-      <c r="D234" s="1">
+      <c r="D234">
         <v>0</v>
       </c>
       <c r="E234" t="str">
@@ -5070,7 +5067,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1125</v>
       </c>
@@ -5080,7 +5077,7 @@
       <c r="C235">
         <v>1125</v>
       </c>
-      <c r="D235" s="1">
+      <c r="D235">
         <v>0</v>
       </c>
       <c r="E235" t="str">
@@ -5088,7 +5085,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1126</v>
       </c>
@@ -5098,7 +5095,7 @@
       <c r="C236">
         <v>1126</v>
       </c>
-      <c r="D236" s="1">
+      <c r="D236">
         <v>0</v>
       </c>
       <c r="E236" t="str">
@@ -5106,7 +5103,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1127</v>
       </c>
@@ -5116,7 +5113,7 @@
       <c r="C237">
         <v>1127</v>
       </c>
-      <c r="D237" s="1">
+      <c r="D237">
         <v>0</v>
       </c>
       <c r="E237" t="str">
@@ -5124,7 +5121,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1128</v>
       </c>
@@ -5134,7 +5131,7 @@
       <c r="C238">
         <v>1128</v>
       </c>
-      <c r="D238" s="1">
+      <c r="D238">
         <v>0</v>
       </c>
       <c r="E238" t="str">
@@ -5142,7 +5139,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1129</v>
       </c>
@@ -5152,7 +5149,7 @@
       <c r="C239">
         <v>1129</v>
       </c>
-      <c r="D239" s="1">
+      <c r="D239">
         <v>0</v>
       </c>
       <c r="E239" t="str">
@@ -5170,15 +5167,15 @@
       <c r="C240">
         <v>1130</v>
       </c>
-      <c r="D240" s="1">
-        <v>0</v>
+      <c r="D240">
+        <v>1</v>
       </c>
       <c r="E240" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1131</v>
       </c>
@@ -5188,7 +5185,7 @@
       <c r="C241">
         <v>1131</v>
       </c>
-      <c r="D241" s="1">
+      <c r="D241">
         <v>1</v>
       </c>
       <c r="E241" t="str">
@@ -5196,7 +5193,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1132</v>
       </c>
@@ -5206,7 +5203,7 @@
       <c r="C242">
         <v>1132</v>
       </c>
-      <c r="D242" s="1">
+      <c r="D242">
         <v>1</v>
       </c>
       <c r="E242" t="str">
@@ -5214,7 +5211,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1133</v>
       </c>
@@ -5224,7 +5221,7 @@
       <c r="C243">
         <v>1133</v>
       </c>
-      <c r="D243" s="1">
+      <c r="D243">
         <v>1</v>
       </c>
       <c r="E243" t="str">
@@ -5242,12 +5239,12 @@
       <c r="C244">
         <v>1134</v>
       </c>
-      <c r="D244" s="1">
-        <v>1</v>
+      <c r="D244">
+        <v>0</v>
       </c>
       <c r="E244" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -5260,12 +5257,12 @@
       <c r="C245">
         <v>1135</v>
       </c>
-      <c r="D245" s="1">
-        <v>1</v>
+      <c r="D245">
+        <v>0</v>
       </c>
       <c r="E245" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -5278,15 +5275,15 @@
       <c r="C246">
         <v>1136</v>
       </c>
-      <c r="D246" s="1">
-        <v>0</v>
+      <c r="D246">
+        <v>1</v>
       </c>
       <c r="E246" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1137</v>
       </c>
@@ -5296,7 +5293,7 @@
       <c r="C247">
         <v>1137</v>
       </c>
-      <c r="D247" s="1">
+      <c r="D247">
         <v>0</v>
       </c>
       <c r="E247" t="str">
@@ -5314,15 +5311,15 @@
       <c r="C248">
         <v>1138</v>
       </c>
-      <c r="D248" s="1">
-        <v>0</v>
+      <c r="D248">
+        <v>1</v>
       </c>
       <c r="E248" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1139</v>
       </c>
@@ -5332,7 +5329,7 @@
       <c r="C249">
         <v>1139</v>
       </c>
-      <c r="D249" s="1">
+      <c r="D249">
         <v>0</v>
       </c>
       <c r="E249" t="str">
@@ -5340,7 +5337,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1140</v>
       </c>
@@ -5350,7 +5347,7 @@
       <c r="C250">
         <v>1140</v>
       </c>
-      <c r="D250" s="1">
+      <c r="D250">
         <v>1</v>
       </c>
       <c r="E250" t="str">
@@ -5368,15 +5365,15 @@
       <c r="C251">
         <v>1141</v>
       </c>
-      <c r="D251" s="1">
-        <v>0</v>
+      <c r="D251">
+        <v>1</v>
       </c>
       <c r="E251" t="str">
         <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1142</v>
       </c>
@@ -5386,7 +5383,7 @@
       <c r="C252">
         <v>1142</v>
       </c>
-      <c r="D252" s="1">
+      <c r="D252">
         <v>1</v>
       </c>
       <c r="E252" t="str">
@@ -5404,15 +5401,15 @@
       <c r="C253">
         <v>1143</v>
       </c>
-      <c r="D253" s="1">
-        <v>1</v>
+      <c r="D253">
+        <v>0</v>
       </c>
       <c r="E253" t="str">
         <f t="shared" si="3"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1144</v>
       </c>
@@ -5422,7 +5419,7 @@
       <c r="C254">
         <v>1144</v>
       </c>
-      <c r="D254" s="1">
+      <c r="D254">
         <v>0</v>
       </c>
       <c r="E254" t="str">
@@ -5430,7 +5427,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1145</v>
       </c>
@@ -5440,7 +5437,7 @@
       <c r="C255">
         <v>1145</v>
       </c>
-      <c r="D255" s="1">
+      <c r="D255">
         <v>0</v>
       </c>
       <c r="E255" t="str">
@@ -5448,7 +5445,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1146</v>
       </c>
@@ -5458,7 +5455,7 @@
       <c r="C256">
         <v>1146</v>
       </c>
-      <c r="D256" s="1">
+      <c r="D256">
         <v>0</v>
       </c>
       <c r="E256" t="str">
@@ -5466,7 +5463,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1147</v>
       </c>
@@ -5476,7 +5473,7 @@
       <c r="C257">
         <v>1147</v>
       </c>
-      <c r="D257" s="1">
+      <c r="D257">
         <v>0</v>
       </c>
       <c r="E257" t="str">
@@ -5484,7 +5481,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1148</v>
       </c>
@@ -5494,7 +5491,7 @@
       <c r="C258">
         <v>1148</v>
       </c>
-      <c r="D258" s="1">
+      <c r="D258">
         <v>0</v>
       </c>
       <c r="E258" t="str">
@@ -5502,7 +5499,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1149</v>
       </c>
@@ -5512,7 +5509,7 @@
       <c r="C259">
         <v>1149</v>
       </c>
-      <c r="D259" s="1">
+      <c r="D259">
         <v>0</v>
       </c>
       <c r="E259" t="str">
@@ -5520,7 +5517,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1150</v>
       </c>
@@ -5530,7 +5527,7 @@
       <c r="C260">
         <v>1150</v>
       </c>
-      <c r="D260" s="1">
+      <c r="D260">
         <v>1</v>
       </c>
       <c r="E260" t="str">
@@ -5548,12 +5545,12 @@
       <c r="C261">
         <v>1151</v>
       </c>
-      <c r="D261" s="1">
-        <v>1</v>
+      <c r="D261">
+        <v>0</v>
       </c>
       <c r="E261" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -5566,15 +5563,15 @@
       <c r="C262">
         <v>1152</v>
       </c>
-      <c r="D262" s="1">
-        <v>1</v>
+      <c r="D262">
+        <v>0</v>
       </c>
       <c r="E262" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1153</v>
       </c>
@@ -5584,7 +5581,7 @@
       <c r="C263">
         <v>1153</v>
       </c>
-      <c r="D263" s="1">
+      <c r="D263">
         <v>0</v>
       </c>
       <c r="E263" t="str">
@@ -5592,7 +5589,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1154</v>
       </c>
@@ -5602,7 +5599,7 @@
       <c r="C264">
         <v>1154</v>
       </c>
-      <c r="D264" s="1">
+      <c r="D264">
         <v>1</v>
       </c>
       <c r="E264" t="str">
@@ -5620,12 +5617,12 @@
       <c r="C265">
         <v>1155</v>
       </c>
-      <c r="D265" s="1">
-        <v>0</v>
+      <c r="D265">
+        <v>1</v>
       </c>
       <c r="E265" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -5638,15 +5635,15 @@
       <c r="C266">
         <v>1156</v>
       </c>
-      <c r="D266" s="1">
-        <v>1</v>
+      <c r="D266">
+        <v>0</v>
       </c>
       <c r="E266" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1157</v>
       </c>
@@ -5656,7 +5653,7 @@
       <c r="C267">
         <v>1157</v>
       </c>
-      <c r="D267" s="1">
+      <c r="D267">
         <v>0</v>
       </c>
       <c r="E267" t="str">
@@ -5664,7 +5661,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1158</v>
       </c>
@@ -5674,7 +5671,7 @@
       <c r="C268">
         <v>1158</v>
       </c>
-      <c r="D268" s="1">
+      <c r="D268">
         <v>0</v>
       </c>
       <c r="E268" t="str">
@@ -5682,7 +5679,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1159</v>
       </c>
@@ -5692,7 +5689,7 @@
       <c r="C269">
         <v>1159</v>
       </c>
-      <c r="D269" s="1">
+      <c r="D269">
         <v>0</v>
       </c>
       <c r="E269" t="str">
@@ -5700,7 +5697,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1160</v>
       </c>
@@ -5710,7 +5707,7 @@
       <c r="C270">
         <v>1160</v>
       </c>
-      <c r="D270" s="1">
+      <c r="D270">
         <v>1</v>
       </c>
       <c r="E270" t="str">
@@ -5718,7 +5715,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1161</v>
       </c>
@@ -5728,7 +5725,7 @@
       <c r="C271">
         <v>1161</v>
       </c>
-      <c r="D271" s="1">
+      <c r="D271">
         <v>0</v>
       </c>
       <c r="E271" t="str">
@@ -5736,7 +5733,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1162</v>
       </c>
@@ -5746,7 +5743,7 @@
       <c r="C272">
         <v>1162</v>
       </c>
-      <c r="D272" s="1">
+      <c r="D272">
         <v>0</v>
       </c>
       <c r="E272" t="str">
@@ -5754,7 +5751,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1163</v>
       </c>
@@ -5764,7 +5761,7 @@
       <c r="C273">
         <v>1163</v>
       </c>
-      <c r="D273" s="1">
+      <c r="D273">
         <v>0</v>
       </c>
       <c r="E273" t="str">
@@ -5772,7 +5769,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1164</v>
       </c>
@@ -5782,7 +5779,7 @@
       <c r="C274">
         <v>1164</v>
       </c>
-      <c r="D274" s="1">
+      <c r="D274">
         <v>1</v>
       </c>
       <c r="E274" t="str">
@@ -5800,15 +5797,15 @@
       <c r="C275">
         <v>1165</v>
       </c>
-      <c r="D275" s="1">
-        <v>0</v>
+      <c r="D275">
+        <v>1</v>
       </c>
       <c r="E275" t="str">
         <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1166</v>
       </c>
@@ -5818,7 +5815,7 @@
       <c r="C276">
         <v>1166</v>
       </c>
-      <c r="D276" s="1">
+      <c r="D276">
         <v>0</v>
       </c>
       <c r="E276" t="str">
@@ -5826,7 +5823,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1167</v>
       </c>
@@ -5836,7 +5833,7 @@
       <c r="C277">
         <v>1167</v>
       </c>
-      <c r="D277" s="1">
+      <c r="D277">
         <v>1</v>
       </c>
       <c r="E277" t="str">
@@ -5844,7 +5841,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1168</v>
       </c>
@@ -5854,7 +5851,7 @@
       <c r="C278">
         <v>1168</v>
       </c>
-      <c r="D278" s="1">
+      <c r="D278">
         <v>0</v>
       </c>
       <c r="E278" t="str">
@@ -5862,7 +5859,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1169</v>
       </c>
@@ -5872,7 +5869,7 @@
       <c r="C279">
         <v>1169</v>
       </c>
-      <c r="D279" s="1">
+      <c r="D279">
         <v>0</v>
       </c>
       <c r="E279" t="str">
@@ -5880,7 +5877,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1170</v>
       </c>
@@ -5890,7 +5887,7 @@
       <c r="C280">
         <v>1170</v>
       </c>
-      <c r="D280" s="1">
+      <c r="D280">
         <v>0</v>
       </c>
       <c r="E280" t="str">
@@ -5908,12 +5905,12 @@
       <c r="C281">
         <v>1171</v>
       </c>
-      <c r="D281" s="1">
-        <v>1</v>
+      <c r="D281">
+        <v>0</v>
       </c>
       <c r="E281" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -5926,12 +5923,12 @@
       <c r="C282">
         <v>1172</v>
       </c>
-      <c r="D282" s="1">
-        <v>0</v>
+      <c r="D282">
+        <v>1</v>
       </c>
       <c r="E282" t="str">
         <f t="shared" si="4"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -5944,12 +5941,12 @@
       <c r="C283">
         <v>1173</v>
       </c>
-      <c r="D283" s="1">
-        <v>0</v>
+      <c r="D283">
+        <v>1</v>
       </c>
       <c r="E283" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -5962,15 +5959,15 @@
       <c r="C284">
         <v>1174</v>
       </c>
-      <c r="D284" s="1">
-        <v>0</v>
+      <c r="D284">
+        <v>1</v>
       </c>
       <c r="E284" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1175</v>
       </c>
@@ -5980,7 +5977,7 @@
       <c r="C285">
         <v>1175</v>
       </c>
-      <c r="D285" s="1">
+      <c r="D285">
         <v>1</v>
       </c>
       <c r="E285" t="str">
@@ -5998,15 +5995,15 @@
       <c r="C286">
         <v>1176</v>
       </c>
-      <c r="D286" s="1">
-        <v>0</v>
+      <c r="D286">
+        <v>1</v>
       </c>
       <c r="E286" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1177</v>
       </c>
@@ -6016,7 +6013,7 @@
       <c r="C287">
         <v>1177</v>
       </c>
-      <c r="D287" s="1">
+      <c r="D287">
         <v>0</v>
       </c>
       <c r="E287" t="str">
@@ -6024,7 +6021,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1178</v>
       </c>
@@ -6034,7 +6031,7 @@
       <c r="C288">
         <v>1178</v>
       </c>
-      <c r="D288" s="1">
+      <c r="D288">
         <v>0</v>
       </c>
       <c r="E288" t="str">
@@ -6052,15 +6049,15 @@
       <c r="C289">
         <v>1179</v>
       </c>
-      <c r="D289" s="1">
-        <v>1</v>
+      <c r="D289">
+        <v>0</v>
       </c>
       <c r="E289" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1180</v>
       </c>
@@ -6070,7 +6067,7 @@
       <c r="C290">
         <v>1180</v>
       </c>
-      <c r="D290" s="1">
+      <c r="D290">
         <v>0</v>
       </c>
       <c r="E290" t="str">
@@ -6078,7 +6075,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1181</v>
       </c>
@@ -6088,7 +6085,7 @@
       <c r="C291">
         <v>1181</v>
       </c>
-      <c r="D291" s="1">
+      <c r="D291">
         <v>0</v>
       </c>
       <c r="E291" t="str">
@@ -6106,15 +6103,15 @@
       <c r="C292">
         <v>1182</v>
       </c>
-      <c r="D292" s="1">
-        <v>1</v>
+      <c r="D292">
+        <v>0</v>
       </c>
       <c r="E292" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1183</v>
       </c>
@@ -6124,7 +6121,7 @@
       <c r="C293">
         <v>1183</v>
       </c>
-      <c r="D293" s="1">
+      <c r="D293">
         <v>1</v>
       </c>
       <c r="E293" t="str">
@@ -6132,7 +6129,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1184</v>
       </c>
@@ -6142,7 +6139,7 @@
       <c r="C294">
         <v>1184</v>
       </c>
-      <c r="D294" s="1">
+      <c r="D294">
         <v>0</v>
       </c>
       <c r="E294" t="str">
@@ -6160,15 +6157,15 @@
       <c r="C295">
         <v>1185</v>
       </c>
-      <c r="D295" s="1">
-        <v>1</v>
+      <c r="D295">
+        <v>0</v>
       </c>
       <c r="E295" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1186</v>
       </c>
@@ -6178,7 +6175,7 @@
       <c r="C296">
         <v>1186</v>
       </c>
-      <c r="D296" s="1">
+      <c r="D296">
         <v>0</v>
       </c>
       <c r="E296" t="str">
@@ -6186,7 +6183,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1187</v>
       </c>
@@ -6196,7 +6193,7 @@
       <c r="C297">
         <v>1187</v>
       </c>
-      <c r="D297" s="1">
+      <c r="D297">
         <v>0</v>
       </c>
       <c r="E297" t="str">
@@ -6204,7 +6201,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1188</v>
       </c>
@@ -6214,7 +6211,7 @@
       <c r="C298">
         <v>1188</v>
       </c>
-      <c r="D298" s="1">
+      <c r="D298">
         <v>1</v>
       </c>
       <c r="E298" t="str">
@@ -6222,7 +6219,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1189</v>
       </c>
@@ -6232,7 +6229,7 @@
       <c r="C299">
         <v>1189</v>
       </c>
-      <c r="D299" s="1">
+      <c r="D299">
         <v>0</v>
       </c>
       <c r="E299" t="str">
@@ -6240,7 +6237,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1190</v>
       </c>
@@ -6250,7 +6247,7 @@
       <c r="C300">
         <v>1190</v>
       </c>
-      <c r="D300" s="1">
+      <c r="D300">
         <v>0</v>
       </c>
       <c r="E300" t="str">
@@ -6258,7 +6255,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1191</v>
       </c>
@@ -6268,7 +6265,7 @@
       <c r="C301">
         <v>1191</v>
       </c>
-      <c r="D301" s="1">
+      <c r="D301">
         <v>0</v>
       </c>
       <c r="E301" t="str">
@@ -6286,15 +6283,15 @@
       <c r="C302">
         <v>1192</v>
       </c>
-      <c r="D302" s="1">
-        <v>1</v>
+      <c r="D302">
+        <v>0</v>
       </c>
       <c r="E302" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1193</v>
       </c>
@@ -6304,7 +6301,7 @@
       <c r="C303">
         <v>1193</v>
       </c>
-      <c r="D303" s="1">
+      <c r="D303">
         <v>0</v>
       </c>
       <c r="E303" t="str">
@@ -6312,7 +6309,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1194</v>
       </c>
@@ -6322,7 +6319,7 @@
       <c r="C304">
         <v>1194</v>
       </c>
-      <c r="D304" s="1">
+      <c r="D304">
         <v>0</v>
       </c>
       <c r="E304" t="str">
@@ -6330,7 +6327,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1195</v>
       </c>
@@ -6340,7 +6337,7 @@
       <c r="C305">
         <v>1195</v>
       </c>
-      <c r="D305" s="1">
+      <c r="D305">
         <v>0</v>
       </c>
       <c r="E305" t="str">
@@ -6348,7 +6345,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1196</v>
       </c>
@@ -6358,7 +6355,7 @@
       <c r="C306">
         <v>1196</v>
       </c>
-      <c r="D306" s="1">
+      <c r="D306">
         <v>1</v>
       </c>
       <c r="E306" t="str">
@@ -6366,7 +6363,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1197</v>
       </c>
@@ -6376,7 +6373,7 @@
       <c r="C307">
         <v>1197</v>
       </c>
-      <c r="D307" s="1">
+      <c r="D307">
         <v>1</v>
       </c>
       <c r="E307" t="str">
@@ -6384,7 +6381,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1198</v>
       </c>
@@ -6394,7 +6391,7 @@
       <c r="C308">
         <v>1198</v>
       </c>
-      <c r="D308" s="1">
+      <c r="D308">
         <v>0</v>
       </c>
       <c r="E308" t="str">
@@ -6402,7 +6399,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1199</v>
       </c>
@@ -6412,7 +6409,7 @@
       <c r="C309">
         <v>1199</v>
       </c>
-      <c r="D309" s="1">
+      <c r="D309">
         <v>1</v>
       </c>
       <c r="E309" t="str">
@@ -6420,7 +6417,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1200</v>
       </c>
@@ -6430,7 +6427,7 @@
       <c r="C310">
         <v>1200</v>
       </c>
-      <c r="D310" s="1">
+      <c r="D310">
         <v>0</v>
       </c>
       <c r="E310" t="str">
@@ -6438,7 +6435,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1201</v>
       </c>
@@ -6448,7 +6445,7 @@
       <c r="C311">
         <v>1201</v>
       </c>
-      <c r="D311" s="1">
+      <c r="D311">
         <v>1</v>
       </c>
       <c r="E311" t="str">
@@ -6456,7 +6453,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1202</v>
       </c>
@@ -6466,7 +6463,7 @@
       <c r="C312">
         <v>1202</v>
       </c>
-      <c r="D312" s="1">
+      <c r="D312">
         <v>0</v>
       </c>
       <c r="E312" t="str">
@@ -6484,15 +6481,15 @@
       <c r="C313">
         <v>1203</v>
       </c>
-      <c r="D313" s="1">
-        <v>1</v>
+      <c r="D313">
+        <v>0</v>
       </c>
       <c r="E313" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1204</v>
       </c>
@@ -6502,7 +6499,7 @@
       <c r="C314">
         <v>1204</v>
       </c>
-      <c r="D314" s="1">
+      <c r="D314">
         <v>0</v>
       </c>
       <c r="E314" t="str">
@@ -6520,15 +6517,15 @@
       <c r="C315">
         <v>1205</v>
       </c>
-      <c r="D315" s="1">
-        <v>0</v>
+      <c r="D315">
+        <v>1</v>
       </c>
       <c r="E315" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1206</v>
       </c>
@@ -6538,7 +6535,7 @@
       <c r="C316">
         <v>1206</v>
       </c>
-      <c r="D316" s="1">
+      <c r="D316">
         <v>1</v>
       </c>
       <c r="E316" t="str">
@@ -6556,15 +6553,15 @@
       <c r="C317">
         <v>1207</v>
       </c>
-      <c r="D317" s="1">
-        <v>0</v>
+      <c r="D317">
+        <v>1</v>
       </c>
       <c r="E317" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1208</v>
       </c>
@@ -6574,7 +6571,7 @@
       <c r="C318">
         <v>1208</v>
       </c>
-      <c r="D318" s="1">
+      <c r="D318">
         <v>0</v>
       </c>
       <c r="E318" t="str">
@@ -6582,7 +6579,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1209</v>
       </c>
@@ -6592,7 +6589,7 @@
       <c r="C319">
         <v>1209</v>
       </c>
-      <c r="D319" s="1">
+      <c r="D319">
         <v>0</v>
       </c>
       <c r="E319" t="str">
@@ -6600,7 +6597,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1210</v>
       </c>
@@ -6610,7 +6607,7 @@
       <c r="C320">
         <v>1210</v>
       </c>
-      <c r="D320" s="1">
+      <c r="D320">
         <v>0</v>
       </c>
       <c r="E320" t="str">
@@ -6618,7 +6615,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1211</v>
       </c>
@@ -6628,7 +6625,7 @@
       <c r="C321">
         <v>1211</v>
       </c>
-      <c r="D321" s="1">
+      <c r="D321">
         <v>0</v>
       </c>
       <c r="E321" t="str">
@@ -6636,7 +6633,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1212</v>
       </c>
@@ -6646,7 +6643,7 @@
       <c r="C322">
         <v>1212</v>
       </c>
-      <c r="D322" s="1">
+      <c r="D322">
         <v>0</v>
       </c>
       <c r="E322" t="str">
@@ -6664,15 +6661,15 @@
       <c r="C323">
         <v>1213</v>
       </c>
-      <c r="D323" s="1">
-        <v>1</v>
+      <c r="D323">
+        <v>0</v>
       </c>
       <c r="E323" t="str">
         <f t="shared" ref="E323:E386" si="5">IF(B323=D323,"YES","NO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1214</v>
       </c>
@@ -6682,7 +6679,7 @@
       <c r="C324">
         <v>1214</v>
       </c>
-      <c r="D324" s="1">
+      <c r="D324">
         <v>0</v>
       </c>
       <c r="E324" t="str">
@@ -6700,15 +6697,15 @@
       <c r="C325">
         <v>1215</v>
       </c>
-      <c r="D325" s="1">
-        <v>0</v>
+      <c r="D325">
+        <v>1</v>
       </c>
       <c r="E325" t="str">
         <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1216</v>
       </c>
@@ -6718,7 +6715,7 @@
       <c r="C326">
         <v>1216</v>
       </c>
-      <c r="D326" s="1">
+      <c r="D326">
         <v>1</v>
       </c>
       <c r="E326" t="str">
@@ -6726,7 +6723,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1217</v>
       </c>
@@ -6736,7 +6733,7 @@
       <c r="C327">
         <v>1217</v>
       </c>
-      <c r="D327" s="1">
+      <c r="D327">
         <v>0</v>
       </c>
       <c r="E327" t="str">
@@ -6744,7 +6741,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1218</v>
       </c>
@@ -6754,7 +6751,7 @@
       <c r="C328">
         <v>1218</v>
       </c>
-      <c r="D328" s="1">
+      <c r="D328">
         <v>1</v>
       </c>
       <c r="E328" t="str">
@@ -6772,15 +6769,15 @@
       <c r="C329">
         <v>1219</v>
       </c>
-      <c r="D329" s="1">
-        <v>0</v>
+      <c r="D329">
+        <v>1</v>
       </c>
       <c r="E329" t="str">
         <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1220</v>
       </c>
@@ -6790,7 +6787,7 @@
       <c r="C330">
         <v>1220</v>
       </c>
-      <c r="D330" s="1">
+      <c r="D330">
         <v>0</v>
       </c>
       <c r="E330" t="str">
@@ -6798,7 +6795,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1221</v>
       </c>
@@ -6808,7 +6805,7 @@
       <c r="C331">
         <v>1221</v>
       </c>
-      <c r="D331" s="1">
+      <c r="D331">
         <v>0</v>
       </c>
       <c r="E331" t="str">
@@ -6816,7 +6813,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1222</v>
       </c>
@@ -6826,7 +6823,7 @@
       <c r="C332">
         <v>1222</v>
       </c>
-      <c r="D332" s="1">
+      <c r="D332">
         <v>1</v>
       </c>
       <c r="E332" t="str">
@@ -6834,7 +6831,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1223</v>
       </c>
@@ -6844,7 +6841,7 @@
       <c r="C333">
         <v>1223</v>
       </c>
-      <c r="D333" s="1">
+      <c r="D333">
         <v>0</v>
       </c>
       <c r="E333" t="str">
@@ -6852,7 +6849,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1224</v>
       </c>
@@ -6862,7 +6859,7 @@
       <c r="C334">
         <v>1224</v>
       </c>
-      <c r="D334" s="1">
+      <c r="D334">
         <v>0</v>
       </c>
       <c r="E334" t="str">
@@ -6870,7 +6867,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1225</v>
       </c>
@@ -6880,7 +6877,7 @@
       <c r="C335">
         <v>1225</v>
       </c>
-      <c r="D335" s="1">
+      <c r="D335">
         <v>1</v>
       </c>
       <c r="E335" t="str">
@@ -6888,7 +6885,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1226</v>
       </c>
@@ -6898,7 +6895,7 @@
       <c r="C336">
         <v>1226</v>
       </c>
-      <c r="D336" s="1">
+      <c r="D336">
         <v>0</v>
       </c>
       <c r="E336" t="str">
@@ -6906,7 +6903,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1227</v>
       </c>
@@ -6916,7 +6913,7 @@
       <c r="C337">
         <v>1227</v>
       </c>
-      <c r="D337" s="1">
+      <c r="D337">
         <v>0</v>
       </c>
       <c r="E337" t="str">
@@ -6924,7 +6921,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1228</v>
       </c>
@@ -6934,7 +6931,7 @@
       <c r="C338">
         <v>1228</v>
       </c>
-      <c r="D338" s="1">
+      <c r="D338">
         <v>0</v>
       </c>
       <c r="E338" t="str">
@@ -6942,7 +6939,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1229</v>
       </c>
@@ -6952,7 +6949,7 @@
       <c r="C339">
         <v>1229</v>
       </c>
-      <c r="D339" s="1">
+      <c r="D339">
         <v>0</v>
       </c>
       <c r="E339" t="str">
@@ -6960,7 +6957,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1230</v>
       </c>
@@ -6970,7 +6967,7 @@
       <c r="C340">
         <v>1230</v>
       </c>
-      <c r="D340" s="1">
+      <c r="D340">
         <v>0</v>
       </c>
       <c r="E340" t="str">
@@ -6988,15 +6985,15 @@
       <c r="C341">
         <v>1231</v>
       </c>
-      <c r="D341" s="1">
-        <v>0</v>
+      <c r="D341">
+        <v>1</v>
       </c>
       <c r="E341" t="str">
         <f t="shared" si="5"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1232</v>
       </c>
@@ -7006,7 +7003,7 @@
       <c r="C342">
         <v>1232</v>
       </c>
-      <c r="D342" s="1">
+      <c r="D342">
         <v>0</v>
       </c>
       <c r="E342" t="str">
@@ -7024,15 +7021,15 @@
       <c r="C343">
         <v>1233</v>
       </c>
-      <c r="D343" s="1">
-        <v>1</v>
+      <c r="D343">
+        <v>0</v>
       </c>
       <c r="E343" t="str">
         <f t="shared" si="5"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1234</v>
       </c>
@@ -7042,7 +7039,7 @@
       <c r="C344">
         <v>1234</v>
       </c>
-      <c r="D344" s="1">
+      <c r="D344">
         <v>0</v>
       </c>
       <c r="E344" t="str">
@@ -7050,7 +7047,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1235</v>
       </c>
@@ -7060,7 +7057,7 @@
       <c r="C345">
         <v>1235</v>
       </c>
-      <c r="D345" s="1">
+      <c r="D345">
         <v>1</v>
       </c>
       <c r="E345" t="str">
@@ -7078,15 +7075,15 @@
       <c r="C346">
         <v>1236</v>
       </c>
-      <c r="D346" s="1">
-        <v>0</v>
+      <c r="D346">
+        <v>1</v>
       </c>
       <c r="E346" t="str">
         <f t="shared" si="5"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1237</v>
       </c>
@@ -7096,7 +7093,7 @@
       <c r="C347">
         <v>1237</v>
       </c>
-      <c r="D347" s="1">
+      <c r="D347">
         <v>1</v>
       </c>
       <c r="E347" t="str">
@@ -7104,7 +7101,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1238</v>
       </c>
@@ -7114,7 +7111,7 @@
       <c r="C348">
         <v>1238</v>
       </c>
-      <c r="D348" s="1">
+      <c r="D348">
         <v>0</v>
       </c>
       <c r="E348" t="str">
@@ -7122,7 +7119,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1239</v>
       </c>
@@ -7132,7 +7129,7 @@
       <c r="C349">
         <v>1239</v>
       </c>
-      <c r="D349" s="1">
+      <c r="D349">
         <v>1</v>
       </c>
       <c r="E349" t="str">
@@ -7140,7 +7137,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1240</v>
       </c>
@@ -7150,7 +7147,7 @@
       <c r="C350">
         <v>1240</v>
       </c>
-      <c r="D350" s="1">
+      <c r="D350">
         <v>0</v>
       </c>
       <c r="E350" t="str">
@@ -7158,7 +7155,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1241</v>
       </c>
@@ -7168,7 +7165,7 @@
       <c r="C351">
         <v>1241</v>
       </c>
-      <c r="D351" s="1">
+      <c r="D351">
         <v>1</v>
       </c>
       <c r="E351" t="str">
@@ -7176,7 +7173,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1242</v>
       </c>
@@ -7186,7 +7183,7 @@
       <c r="C352">
         <v>1242</v>
       </c>
-      <c r="D352" s="1">
+      <c r="D352">
         <v>1</v>
       </c>
       <c r="E352" t="str">
@@ -7194,7 +7191,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1243</v>
       </c>
@@ -7204,7 +7201,7 @@
       <c r="C353">
         <v>1243</v>
       </c>
-      <c r="D353" s="1">
+      <c r="D353">
         <v>0</v>
       </c>
       <c r="E353" t="str">
@@ -7212,7 +7209,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1244</v>
       </c>
@@ -7222,7 +7219,7 @@
       <c r="C354">
         <v>1244</v>
       </c>
-      <c r="D354" s="1">
+      <c r="D354">
         <v>0</v>
       </c>
       <c r="E354" t="str">
@@ -7230,7 +7227,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1245</v>
       </c>
@@ -7240,7 +7237,7 @@
       <c r="C355">
         <v>1245</v>
       </c>
-      <c r="D355" s="1">
+      <c r="D355">
         <v>0</v>
       </c>
       <c r="E355" t="str">
@@ -7248,7 +7245,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1246</v>
       </c>
@@ -7258,7 +7255,7 @@
       <c r="C356">
         <v>1246</v>
       </c>
-      <c r="D356" s="1">
+      <c r="D356">
         <v>1</v>
       </c>
       <c r="E356" t="str">
@@ -7266,7 +7263,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1247</v>
       </c>
@@ -7276,7 +7273,7 @@
       <c r="C357">
         <v>1247</v>
       </c>
-      <c r="D357" s="1">
+      <c r="D357">
         <v>0</v>
       </c>
       <c r="E357" t="str">
@@ -7284,7 +7281,7 @@
         <v>NO</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1248</v>
       </c>
@@ -7294,7 +7291,7 @@
       <c r="C358">
         <v>1248</v>
       </c>
-      <c r="D358" s="1">
+      <c r="D358">
         <v>1</v>
       </c>
       <c r="E358" t="str">
@@ -7302,7 +7299,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1249</v>
       </c>
@@ -7312,7 +7309,7 @@
       <c r="C359">
         <v>1249</v>
       </c>
-      <c r="D359" s="1">
+      <c r="D359">
         <v>0</v>
       </c>
       <c r="E359" t="str">
@@ -7330,12 +7327,12 @@
       <c r="C360">
         <v>1250</v>
       </c>
-      <c r="D360" s="1">
-        <v>1</v>
+      <c r="D360">
+        <v>0</v>
       </c>
       <c r="E360" t="str">
         <f t="shared" si="5"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -7348,15 +7345,15 @@
       <c r="C361">
         <v>1251</v>
       </c>
-      <c r="D361" s="1">
-        <v>0</v>
+      <c r="D361">
+        <v>1</v>
       </c>
       <c r="E361" t="str">
         <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1252</v>
       </c>
@@ -7366,7 +7363,7 @@
       <c r="C362">
         <v>1252</v>
       </c>
-      <c r="D362" s="1">
+      <c r="D362">
         <v>0</v>
       </c>
       <c r="E362" t="str">
@@ -7374,7 +7371,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1253</v>
       </c>
@@ -7384,7 +7381,7 @@
       <c r="C363">
         <v>1253</v>
       </c>
-      <c r="D363" s="1">
+      <c r="D363">
         <v>1</v>
       </c>
       <c r="E363" t="str">
@@ -7392,7 +7389,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1254</v>
       </c>
@@ -7402,7 +7399,7 @@
       <c r="C364">
         <v>1254</v>
       </c>
-      <c r="D364" s="1">
+      <c r="D364">
         <v>1</v>
       </c>
       <c r="E364" t="str">
@@ -7410,7 +7407,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1255</v>
       </c>
@@ -7420,7 +7417,7 @@
       <c r="C365">
         <v>1255</v>
       </c>
-      <c r="D365" s="1">
+      <c r="D365">
         <v>0</v>
       </c>
       <c r="E365" t="str">
@@ -7428,7 +7425,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1256</v>
       </c>
@@ -7438,7 +7435,7 @@
       <c r="C366">
         <v>1256</v>
       </c>
-      <c r="D366" s="1">
+      <c r="D366">
         <v>1</v>
       </c>
       <c r="E366" t="str">
@@ -7446,7 +7443,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1257</v>
       </c>
@@ -7456,7 +7453,7 @@
       <c r="C367">
         <v>1257</v>
       </c>
-      <c r="D367" s="1">
+      <c r="D367">
         <v>0</v>
       </c>
       <c r="E367" t="str">
@@ -7464,7 +7461,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1258</v>
       </c>
@@ -7474,7 +7471,7 @@
       <c r="C368">
         <v>1258</v>
       </c>
-      <c r="D368" s="1">
+      <c r="D368">
         <v>0</v>
       </c>
       <c r="E368" t="str">
@@ -7492,15 +7489,15 @@
       <c r="C369">
         <v>1259</v>
       </c>
-      <c r="D369" s="1">
-        <v>0</v>
+      <c r="D369">
+        <v>1</v>
       </c>
       <c r="E369" t="str">
         <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1260</v>
       </c>
@@ -7510,7 +7507,7 @@
       <c r="C370">
         <v>1260</v>
       </c>
-      <c r="D370" s="1">
+      <c r="D370">
         <v>1</v>
       </c>
       <c r="E370" t="str">
@@ -7528,15 +7525,15 @@
       <c r="C371">
         <v>1261</v>
       </c>
-      <c r="D371" s="1">
-        <v>1</v>
+      <c r="D371">
+        <v>0</v>
       </c>
       <c r="E371" t="str">
         <f t="shared" si="5"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1262</v>
       </c>
@@ -7546,7 +7543,7 @@
       <c r="C372">
         <v>1262</v>
       </c>
-      <c r="D372" s="1">
+      <c r="D372">
         <v>0</v>
       </c>
       <c r="E372" t="str">
@@ -7554,7 +7551,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1263</v>
       </c>
@@ -7564,7 +7561,7 @@
       <c r="C373">
         <v>1263</v>
       </c>
-      <c r="D373" s="1">
+      <c r="D373">
         <v>1</v>
       </c>
       <c r="E373" t="str">
@@ -7582,15 +7579,15 @@
       <c r="C374">
         <v>1264</v>
       </c>
-      <c r="D374" s="1">
-        <v>1</v>
+      <c r="D374">
+        <v>0</v>
       </c>
       <c r="E374" t="str">
         <f t="shared" si="5"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1265</v>
       </c>
@@ -7600,7 +7597,7 @@
       <c r="C375">
         <v>1265</v>
       </c>
-      <c r="D375" s="1">
+      <c r="D375">
         <v>0</v>
       </c>
       <c r="E375" t="str">
@@ -7608,7 +7605,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1266</v>
       </c>
@@ -7618,7 +7615,7 @@
       <c r="C376">
         <v>1266</v>
       </c>
-      <c r="D376" s="1">
+      <c r="D376">
         <v>1</v>
       </c>
       <c r="E376" t="str">
@@ -7626,7 +7623,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1267</v>
       </c>
@@ -7636,7 +7633,7 @@
       <c r="C377">
         <v>1267</v>
       </c>
-      <c r="D377" s="1">
+      <c r="D377">
         <v>1</v>
       </c>
       <c r="E377" t="str">
@@ -7654,15 +7651,15 @@
       <c r="C378">
         <v>1268</v>
       </c>
-      <c r="D378" s="1">
-        <v>0</v>
+      <c r="D378">
+        <v>1</v>
       </c>
       <c r="E378" t="str">
         <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1269</v>
       </c>
@@ -7672,7 +7669,7 @@
       <c r="C379">
         <v>1269</v>
       </c>
-      <c r="D379" s="1">
+      <c r="D379">
         <v>0</v>
       </c>
       <c r="E379" t="str">
@@ -7680,7 +7677,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1270</v>
       </c>
@@ -7690,7 +7687,7 @@
       <c r="C380">
         <v>1270</v>
       </c>
-      <c r="D380" s="1">
+      <c r="D380">
         <v>0</v>
       </c>
       <c r="E380" t="str">
@@ -7698,7 +7695,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1271</v>
       </c>
@@ -7708,7 +7705,7 @@
       <c r="C381">
         <v>1271</v>
       </c>
-      <c r="D381" s="1">
+      <c r="D381">
         <v>0</v>
       </c>
       <c r="E381" t="str">
@@ -7716,7 +7713,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1272</v>
       </c>
@@ -7726,7 +7723,7 @@
       <c r="C382">
         <v>1272</v>
       </c>
-      <c r="D382" s="1">
+      <c r="D382">
         <v>0</v>
       </c>
       <c r="E382" t="str">
@@ -7734,7 +7731,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1273</v>
       </c>
@@ -7744,7 +7741,7 @@
       <c r="C383">
         <v>1273</v>
       </c>
-      <c r="D383" s="1">
+      <c r="D383">
         <v>0</v>
       </c>
       <c r="E383" t="str">
@@ -7752,7 +7749,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1274</v>
       </c>
@@ -7762,7 +7759,7 @@
       <c r="C384">
         <v>1274</v>
       </c>
-      <c r="D384" s="1">
+      <c r="D384">
         <v>0</v>
       </c>
       <c r="E384" t="str">
@@ -7780,15 +7777,15 @@
       <c r="C385">
         <v>1275</v>
       </c>
-      <c r="D385" s="1">
-        <v>0</v>
+      <c r="D385">
+        <v>1</v>
       </c>
       <c r="E385" t="str">
         <f t="shared" si="5"/>
-        <v>YES</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1276</v>
       </c>
@@ -7798,7 +7795,7 @@
       <c r="C386">
         <v>1276</v>
       </c>
-      <c r="D386" s="1">
+      <c r="D386">
         <v>0</v>
       </c>
       <c r="E386" t="str">
@@ -7806,7 +7803,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1277</v>
       </c>
@@ -7816,7 +7813,7 @@
       <c r="C387">
         <v>1277</v>
       </c>
-      <c r="D387" s="1">
+      <c r="D387">
         <v>1</v>
       </c>
       <c r="E387" t="str">
@@ -7824,7 +7821,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1278</v>
       </c>
@@ -7834,7 +7831,7 @@
       <c r="C388">
         <v>1278</v>
       </c>
-      <c r="D388" s="1">
+      <c r="D388">
         <v>0</v>
       </c>
       <c r="E388" t="str">
@@ -7842,7 +7839,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1279</v>
       </c>
@@ -7852,7 +7849,7 @@
       <c r="C389">
         <v>1279</v>
       </c>
-      <c r="D389" s="1">
+      <c r="D389">
         <v>0</v>
       </c>
       <c r="E389" t="str">
@@ -7860,7 +7857,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1280</v>
       </c>
@@ -7870,7 +7867,7 @@
       <c r="C390">
         <v>1280</v>
       </c>
-      <c r="D390" s="1">
+      <c r="D390">
         <v>0</v>
       </c>
       <c r="E390" t="str">
@@ -7878,7 +7875,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1281</v>
       </c>
@@ -7888,7 +7885,7 @@
       <c r="C391">
         <v>1281</v>
       </c>
-      <c r="D391" s="1">
+      <c r="D391">
         <v>0</v>
       </c>
       <c r="E391" t="str">
@@ -7896,7 +7893,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1282</v>
       </c>
@@ -7906,7 +7903,7 @@
       <c r="C392">
         <v>1282</v>
       </c>
-      <c r="D392" s="1">
+      <c r="D392">
         <v>0</v>
       </c>
       <c r="E392" t="str">
@@ -7914,7 +7911,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1283</v>
       </c>
@@ -7924,7 +7921,7 @@
       <c r="C393">
         <v>1283</v>
       </c>
-      <c r="D393" s="1">
+      <c r="D393">
         <v>1</v>
       </c>
       <c r="E393" t="str">
@@ -7942,15 +7939,15 @@
       <c r="C394">
         <v>1284</v>
       </c>
-      <c r="D394" s="1">
-        <v>0</v>
+      <c r="D394">
+        <v>1</v>
       </c>
       <c r="E394" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1285</v>
       </c>
@@ -7960,7 +7957,7 @@
       <c r="C395">
         <v>1285</v>
       </c>
-      <c r="D395" s="1">
+      <c r="D395">
         <v>0</v>
       </c>
       <c r="E395" t="str">
@@ -7978,15 +7975,15 @@
       <c r="C396">
         <v>1286</v>
       </c>
-      <c r="D396" s="1">
-        <v>1</v>
+      <c r="D396">
+        <v>0</v>
       </c>
       <c r="E396" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1287</v>
       </c>
@@ -7996,7 +7993,7 @@
       <c r="C397">
         <v>1287</v>
       </c>
-      <c r="D397" s="1">
+      <c r="D397">
         <v>1</v>
       </c>
       <c r="E397" t="str">
@@ -8004,7 +8001,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1288</v>
       </c>
@@ -8014,7 +8011,7 @@
       <c r="C398">
         <v>1288</v>
       </c>
-      <c r="D398" s="1">
+      <c r="D398">
         <v>0</v>
       </c>
       <c r="E398" t="str">
@@ -8022,7 +8019,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1289</v>
       </c>
@@ -8032,7 +8029,7 @@
       <c r="C399">
         <v>1289</v>
       </c>
-      <c r="D399" s="1">
+      <c r="D399">
         <v>1</v>
       </c>
       <c r="E399" t="str">
@@ -8040,7 +8037,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1290</v>
       </c>
@@ -8050,7 +8047,7 @@
       <c r="C400">
         <v>1290</v>
       </c>
-      <c r="D400" s="1">
+      <c r="D400">
         <v>0</v>
       </c>
       <c r="E400" t="str">
@@ -8058,7 +8055,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1291</v>
       </c>
@@ -8068,7 +8065,7 @@
       <c r="C401">
         <v>1291</v>
       </c>
-      <c r="D401" s="1">
+      <c r="D401">
         <v>0</v>
       </c>
       <c r="E401" t="str">
@@ -8076,7 +8073,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1292</v>
       </c>
@@ -8086,7 +8083,7 @@
       <c r="C402">
         <v>1292</v>
       </c>
-      <c r="D402" s="1">
+      <c r="D402">
         <v>1</v>
       </c>
       <c r="E402" t="str">
@@ -8094,7 +8091,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1293</v>
       </c>
@@ -8104,7 +8101,7 @@
       <c r="C403">
         <v>1293</v>
       </c>
-      <c r="D403" s="1">
+      <c r="D403">
         <v>0</v>
       </c>
       <c r="E403" t="str">
@@ -8112,7 +8109,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1294</v>
       </c>
@@ -8122,7 +8119,7 @@
       <c r="C404">
         <v>1294</v>
       </c>
-      <c r="D404" s="1">
+      <c r="D404">
         <v>1</v>
       </c>
       <c r="E404" t="str">
@@ -8130,7 +8127,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1295</v>
       </c>
@@ -8140,7 +8137,7 @@
       <c r="C405">
         <v>1295</v>
       </c>
-      <c r="D405" s="1">
+      <c r="D405">
         <v>0</v>
       </c>
       <c r="E405" t="str">
@@ -8158,12 +8155,12 @@
       <c r="C406">
         <v>1296</v>
       </c>
-      <c r="D406" s="1">
-        <v>1</v>
+      <c r="D406">
+        <v>0</v>
       </c>
       <c r="E406" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -8176,15 +8173,15 @@
       <c r="C407">
         <v>1297</v>
       </c>
-      <c r="D407" s="1">
-        <v>1</v>
+      <c r="D407">
+        <v>0</v>
       </c>
       <c r="E407" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>1298</v>
       </c>
@@ -8194,7 +8191,7 @@
       <c r="C408">
         <v>1298</v>
       </c>
-      <c r="D408" s="1">
+      <c r="D408">
         <v>0</v>
       </c>
       <c r="E408" t="str">
@@ -8202,7 +8199,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1299</v>
       </c>
@@ -8212,7 +8209,7 @@
       <c r="C409">
         <v>1299</v>
       </c>
-      <c r="D409" s="1">
+      <c r="D409">
         <v>0</v>
       </c>
       <c r="E409" t="str">
@@ -8220,7 +8217,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1300</v>
       </c>
@@ -8230,7 +8227,7 @@
       <c r="C410">
         <v>1300</v>
       </c>
-      <c r="D410" s="1">
+      <c r="D410">
         <v>1</v>
       </c>
       <c r="E410" t="str">
@@ -8248,12 +8245,12 @@
       <c r="C411">
         <v>1301</v>
       </c>
-      <c r="D411" s="1">
-        <v>0</v>
+      <c r="D411">
+        <v>1</v>
       </c>
       <c r="E411" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -8266,15 +8263,15 @@
       <c r="C412">
         <v>1302</v>
       </c>
-      <c r="D412" s="1">
-        <v>0</v>
+      <c r="D412">
+        <v>1</v>
       </c>
       <c r="E412" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1303</v>
       </c>
@@ -8284,7 +8281,7 @@
       <c r="C413">
         <v>1303</v>
       </c>
-      <c r="D413" s="1">
+      <c r="D413">
         <v>1</v>
       </c>
       <c r="E413" t="str">
@@ -8302,15 +8299,15 @@
       <c r="C414">
         <v>1304</v>
       </c>
-      <c r="D414" s="1">
-        <v>0</v>
+      <c r="D414">
+        <v>1</v>
       </c>
       <c r="E414" t="str">
         <f t="shared" si="6"/>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>1305</v>
       </c>
@@ -8320,7 +8317,7 @@
       <c r="C415">
         <v>1305</v>
       </c>
-      <c r="D415" s="1">
+      <c r="D415">
         <v>0</v>
       </c>
       <c r="E415" t="str">
@@ -8328,7 +8325,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1306</v>
       </c>
@@ -8338,7 +8335,7 @@
       <c r="C416">
         <v>1306</v>
       </c>
-      <c r="D416" s="1">
+      <c r="D416">
         <v>1</v>
       </c>
       <c r="E416" t="str">
@@ -8346,7 +8343,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>1307</v>
       </c>
@@ -8356,7 +8353,7 @@
       <c r="C417">
         <v>1307</v>
       </c>
-      <c r="D417" s="1">
+      <c r="D417">
         <v>0</v>
       </c>
       <c r="E417" t="str">
@@ -8364,7 +8361,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>1308</v>
       </c>
@@ -8374,7 +8371,7 @@
       <c r="C418">
         <v>1308</v>
       </c>
-      <c r="D418" s="1">
+      <c r="D418">
         <v>0</v>
       </c>
       <c r="E418" t="str">
@@ -8382,7 +8379,7 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>1309</v>
       </c>
@@ -8392,7 +8389,7 @@
       <c r="C419">
         <v>1309</v>
       </c>
-      <c r="D419" s="1">
+      <c r="D419">
         <v>1</v>
       </c>
       <c r="E419" t="str">
@@ -8401,10 +8398,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E419">
+  <autoFilter ref="A1:E419" xr:uid="{DAE4FE9B-8965-4C5E-8230-EE14298C8B6F}">
     <filterColumn colId="4">
       <filters>
-        <filter val="NO"/>
+        <filter val="YES"/>
       </filters>
     </filterColumn>
   </autoFilter>
